--- a/Textbooks, projects/Applied Math/labs/lab_5/var_4/lab_5_var_4.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_5/var_4/lab_5_var_4.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC7568-6A8E-4722-A795-9181A91AC147}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE09F7-CD92-4614-8557-0647B68E2338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -85,12 +86,78 @@
   <si>
     <t>y кв</t>
   </si>
+  <si>
+    <t>(ei-ei-1)^2</t>
+  </si>
+  <si>
+    <t>d=</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>d1=</t>
+  </si>
+  <si>
+    <t>d2=</t>
+  </si>
+  <si>
+    <t>xlny</t>
+  </si>
+  <si>
+    <t>lny</t>
+  </si>
+  <si>
+    <t>y эксп</t>
+  </si>
+  <si>
+    <t>с=</t>
+  </si>
+  <si>
+    <t>y=10,5*e^0,11x</t>
+  </si>
+  <si>
+    <t>ε сред=</t>
+  </si>
+  <si>
+    <r>
+      <t>S_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+  </si>
+  <si>
+    <t>t=</t>
+  </si>
+  <si>
+    <t>t_табл=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +177,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -160,6 +234,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -489,11 +573,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099655855"/>
-        <c:axId val="277420159"/>
+        <c:axId val="373705416"/>
+        <c:axId val="373706592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099655855"/>
+        <c:axId val="373705416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,12 +634,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277420159"/>
+        <c:crossAx val="373706592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="277420159"/>
+        <c:axId val="373706592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +696,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099655855"/>
+        <c:crossAx val="373705416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1023,11 +1107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2042333295"/>
-        <c:axId val="2086145375"/>
+        <c:axId val="373707376"/>
+        <c:axId val="373707768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2042333295"/>
+        <c:axId val="373707376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,12 +1168,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2086145375"/>
+        <c:crossAx val="373707768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086145375"/>
+        <c:axId val="373707768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,7 +1230,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2042333295"/>
+        <c:crossAx val="373707376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1198,6 +1282,523 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-217C-4BDE-A265-E798AE7B0846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y эксп</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист3!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист3!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>13.25286372564012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.727321105363128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.792507173749044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.11266494203781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.647699183094979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.937673516750948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.78632968913525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.451499990936853</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.692640865267215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.196055330490893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.627971897242233</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85.35776305018976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-217C-4BDE-A265-E798AE7B0846}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="357003848"/>
+        <c:axId val="357010904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="357003848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357010904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="357010904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="357003848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1313,6 +1914,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1830,6 +2471,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2407,6 +3564,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A29D33B-88B8-4734-993F-5121BFA2310E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2690,15 +3888,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2720,7 +3923,9 @@
       <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="M1">
         <f>A15</f>
@@ -2735,7 +3940,7 @@
         <v>5638</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2776,7 +3981,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -2792,7 +3997,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E14" si="2">$P$4+$P$5*A3</f>
+        <f t="shared" ref="E3:E13" si="2">$P$4+$P$5*A3</f>
         <v>17.138929511553101</v>
       </c>
       <c r="F3" s="2">
@@ -2803,10 +4008,13 @@
         <f t="shared" ref="G3:G13" si="4">F3^2</f>
         <v>4.5750194553927885</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <f>(F3-F2)^2</f>
+        <v>1.6306819392105592</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -2833,7 +4041,10 @@
         <f t="shared" si="4"/>
         <v>0.60438232025995853</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H13" si="5">(F4-F3)^2</f>
+        <v>1.8537073376835909</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="M4">
         <f t="array" ref="M4:N5">MINVERSE(M1:N2)</f>
@@ -2850,7 +4061,7 @@
         <v>2.5849663644340524</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -2877,7 +4088,10 @@
         <f t="shared" si="4"/>
         <v>5.8366263711700652</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="5"/>
+        <v>2.6846520583621643</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="M5">
         <v>3.5097981866042704E-3</v>
@@ -2892,7 +4106,7 @@
         <v>3.6384907867797622</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -2919,10 +4133,13 @@
         <f t="shared" si="4"/>
         <v>1.7085296017531599</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="5"/>
+        <v>13.860866203615315</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -2949,13 +4166,16 @@
         <f t="shared" si="4"/>
         <v>2.7842812061119306</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13068891124311532</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="O7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -2982,10 +4202,13 @@
         <f t="shared" si="4"/>
         <v>5.7199178822881649</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="5"/>
+        <v>0.5227556449724613</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -3012,10 +4235,13 @@
         <f t="shared" si="4"/>
         <v>14.086091342523229</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8537073376835909</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -3042,10 +4268,13 @@
         <f t="shared" si="4"/>
         <v>16.930372663267399</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13068891124311532</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -3072,10 +4301,13 @@
         <f t="shared" si="4"/>
         <v>1.3510067657802582</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <f t="shared" si="5"/>
+        <v>27.846534527686757</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -3102,10 +4334,25 @@
         <f t="shared" si="4"/>
         <v>0.64131099534026614</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="5"/>
+        <v>0.13068891124311532</v>
+      </c>
       <c r="I12" s="2"/>
+      <c r="P12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>12</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0.97</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -3132,10 +4379,25 @@
         <f t="shared" si="4"/>
         <v>25.784058186616701</v>
       </c>
-      <c r="H13" s="5"/>
+      <c r="H13" s="2">
+        <f t="shared" si="5"/>
+        <v>18.292571380567708</v>
+      </c>
       <c r="I13" s="5"/>
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1.33</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>25</v>
       </c>
@@ -3150,8 +4412,15 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
+      <c r="P14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="10">
+        <f>F15/Q12</f>
+        <v>-2.7829590483937256E-14</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>SUM(A2:A13)</f>
         <v>119</v>
@@ -3165,20 +4434,55 @@
         <v>1465</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="B15:G15" si="5">SUM(D2:D14)</f>
+        <f t="shared" ref="D15:G15" si="6">SUM(D2:D14)</f>
         <v>5638</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>464.00000000000034</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="5"/>
+        <f>SUM(F2:F13)</f>
         <v>-3.3395508580724709E-13</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>80.764551038315304</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H3:H13)</f>
+        <v>68.937543163511492</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <f>H15/F15</f>
+        <v>-206427588898289.78</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>SQRT(G15/(Q12-Q13-1))</f>
+        <v>2.8419104672440918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>((ABS(Q14)-0)/Q15)*SQRT(Q12)</f>
+        <v>3.3922437196804607E-14</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>12.706</v>
       </c>
     </row>
   </sheetData>
@@ -3188,16 +4492,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AFB4BA-26E8-47F9-BC6D-CDADAAE31C8F}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3227,6 +4534,9 @@
       </c>
       <c r="J1" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="M1">
         <v>12</v>
@@ -3244,7 +4554,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -3300,7 +4610,7 @@
         <v>5638</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -3339,6 +4649,10 @@
         <f t="shared" ref="J3:J13" si="7">I3^2</f>
         <v>0.85724283077030505</v>
       </c>
+      <c r="K3">
+        <f>(I3-I2)^2</f>
+        <v>3.7483052249402609</v>
+      </c>
       <c r="M3">
         <f>C15</f>
         <v>1465</v>
@@ -3356,7 +4670,7 @@
         <v>76820</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -3395,9 +4709,13 @@
         <f t="shared" si="7"/>
         <v>11.994503770202495</v>
       </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K13" si="8">(I4-I3)^2</f>
+        <v>6.4385719220314943</v>
+      </c>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -3436,6 +4754,10 @@
         <f t="shared" si="7"/>
         <v>7.3640613304804177</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="8"/>
+        <v>0.56194185155119325</v>
+      </c>
       <c r="M5">
         <f t="array" ref="M5:O7">MINVERSE(M1:O3)</f>
         <v>-6.0774690547307948E-2</v>
@@ -3454,7 +4776,7 @@
         <v>7.0944817006808307</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -3493,6 +4815,10 @@
         <f t="shared" si="7"/>
         <v>54.070123711756985</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>21.525503923461155</v>
+      </c>
       <c r="M6">
         <v>2.8953265723500449E-2</v>
       </c>
@@ -3509,7 +4835,7 @@
         <v>1.1707871915061343</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -3548,6 +4874,10 @@
         <f t="shared" si="7"/>
         <v>59.94515099300267</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>0.15146605404559596</v>
+      </c>
       <c r="M7">
         <v>-1.6655112475197063E-3</v>
       </c>
@@ -3564,7 +4894,7 @@
         <v>0.14353096519791608</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -3603,8 +4933,12 @@
         <f t="shared" si="7"/>
         <v>58.669662176505767</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>6.8579914665913132E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>12</v>
       </c>
@@ -3643,8 +4977,12 @@
         <f t="shared" si="7"/>
         <v>67.037006846481788</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>0.27878464304290657</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>13</v>
       </c>
@@ -3683,8 +5021,12 @@
         <f t="shared" si="7"/>
         <v>55.183380230191325</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>0.57617408972755524</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>15</v>
       </c>
@@ -3723,8 +5065,12 @@
         <f t="shared" si="7"/>
         <v>0.90393838398719673</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>70.212809833705037</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>16</v>
       </c>
@@ -3763,8 +5109,12 @@
         <f t="shared" si="7"/>
         <v>6.6100608247156094</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>2.6252007060232345</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>18</v>
       </c>
@@ -3803,8 +5153,24 @@
         <f t="shared" si="7"/>
         <v>136.25154877368939</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>82.840579122219665</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>12</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.97</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>25</v>
       </c>
@@ -3826,8 +5192,20 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="7"/>
+      <c r="P14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>1</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="10">
+        <v>1.33</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>SUM(A2:A14)</f>
         <v>144</v>
@@ -3841,7 +5219,7 @@
         <v>1465</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:G15" si="8">SUM(D2:D14)</f>
+        <f t="shared" ref="D15:G15" si="9">SUM(D2:D14)</f>
         <v>5638</v>
       </c>
       <c r="E15" s="1">
@@ -3853,12 +5231,715 @@
         <v>297925</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76820</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="1">
+        <f>SUM(I2:I13)</f>
+        <v>29.269679787652983</v>
+      </c>
+      <c r="J15" s="1">
+        <f>SUM(J2:J13)</f>
+        <v>459.90714339202327</v>
+      </c>
+      <c r="K15" s="1">
+        <f>SUM(K3:K13)</f>
+        <v>188.96619536221471</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <f>K15/J15</f>
+        <v>0.41087901781325575</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>I15/Q13</f>
+        <v>2.4391399823044151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>SQRT(J15/(Q13-Q14-1))</f>
+        <v>6.7816454005795919</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="10">
+        <f>((ABS(Q15)-0)/Q16)*SQRT(Q13)</f>
+        <v>1.2459260626522393</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>12.706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <f>Q12</f>
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <f>A15</f>
+        <v>119</v>
+      </c>
+      <c r="P1">
+        <f>D15</f>
+        <v>42.069975500572959</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2^2</f>
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <f>LN(B2)</f>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="E2" s="2">
+        <f>A2*D2</f>
+        <v>4.3944491546724391</v>
+      </c>
+      <c r="F2" s="2">
+        <f>$P$7*EXP($P$5*A2)</f>
+        <v>13.25286372564012</v>
+      </c>
+      <c r="G2" s="2">
+        <f>B2-F2</f>
+        <v>-4.2528637256401201</v>
+      </c>
+      <c r="H2" s="2">
+        <f>G2^2</f>
+        <v>18.086849868865563</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="M2">
+        <f>A15</f>
+        <v>119</v>
+      </c>
+      <c r="N2">
+        <f>C15</f>
+        <v>1465</v>
+      </c>
+      <c r="P2">
+        <f>E15</f>
+        <v>450.3624572421063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C14" si="0">A3^2</f>
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D13" si="1">LN(B3)</f>
+        <v>2.7080502011022101</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E13" si="2">A3*D3</f>
+        <v>10.83220080440884</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F13" si="3">$P$7*EXP($P$5*A3)</f>
+        <v>16.727321105363128</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G13" si="4">B3-F3</f>
+        <v>-1.7273211053631279</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H13" si="5">G3^2</f>
+        <v>2.9836382010328979</v>
+      </c>
+      <c r="I3" s="2">
+        <f>(G3-G2)^2</f>
+        <v>6.3783655268355757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9957322735539909</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="2"/>
+        <v>14.978661367769954</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="3"/>
+        <v>18.792507173749044</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2074928262509559</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="5"/>
+        <v>1.4580389254475212</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I13" si="6">(G4-G3)^2</f>
+        <v>8.6131328131961151</v>
+      </c>
+      <c r="M4">
+        <f t="array" ref="M4:N5">MINVERSE(M1:N2)</f>
+        <v>0.42848786194793803</v>
+      </c>
+      <c r="N4">
+        <v>-3.4805498683825681E-2</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <f t="array" ref="P4:P5">MMULT(M4:N5,P1:P2)</f>
+        <v>2.3513839416580122</v>
+      </c>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0910424533583161</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="2"/>
+        <v>18.546254720149896</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="3"/>
+        <v>21.11266494203781</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.88733505796218992</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="5"/>
+        <v>0.78736350508876296</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="6"/>
+        <v>0.10250099659564316</v>
+      </c>
+      <c r="M5">
+        <v>-3.4805498683825681E-2</v>
+      </c>
+      <c r="N5">
+        <v>3.5097981866042704E-3</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>0.11641485882921709</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4965075614664802</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="2"/>
+        <v>27.972060491731842</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="3"/>
+        <v>26.647699183094979</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3523008169050215</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="5"/>
+        <v>40.351725668452204</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="6"/>
+        <v>29.8658507464176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.6109179126442243</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="2"/>
+        <v>32.498261213798017</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="3"/>
+        <v>29.937673516750948</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>7.062326483249052</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="5"/>
+        <v>49.876455356000925</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="6"/>
+        <v>0.50413644686728454</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <f>EXP(P4)</f>
+        <v>10.500091187588572</v>
+      </c>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>3.8066624897703196</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
+        <v>41.873287387473518</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="3"/>
+        <v>37.78632968913525</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>7.2136703108647495</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="5"/>
+        <v>52.037039353851533</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2904954157369973E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>50</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.912023005428146</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>46.94427606513775</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>42.451499990936853</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>7.5485000090631473</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="5"/>
+        <v>56.979852386826337</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11211092679563016</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9889840465642745</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>51.856792605335571</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
+        <v>47.692640865267215</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>6.3073591347327849</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="5"/>
+        <v>39.782779254497108</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5404306699335366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>60.380275361027245</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="3"/>
+        <v>60.196055330490893</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.1960553304908927</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="5"/>
+        <v>17.606880336541035</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="6"/>
+        <v>110.32171542827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0943445622221004</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>65.509512995553607</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="3"/>
+        <v>67.627971897242233</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>-7.627971897242233</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="5"/>
+        <v>58.185955265117272</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="6"/>
+        <v>11.778051321142307</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>12</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.1431347263915326</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>74.576425075047581</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="3"/>
+        <v>85.35776305018976</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>-22.35776305018976</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="5"/>
+        <v>499.86956860843054</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="6"/>
+        <v>216.96674740945124</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>1</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="10">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="P14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="10">
+        <f>G15/Q12</f>
+        <v>-0.29858253915818622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f>SUM(A2:A13)</f>
+        <v>119</v>
+      </c>
+      <c r="B15" s="3">
+        <f>SUM(B2:B14)</f>
+        <v>464</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C2:C13)</f>
+        <v>1465</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="7">SUM(D2:D14)</f>
+        <v>42.069975500572959</v>
+      </c>
+      <c r="E15" s="3">
+        <f>SUM(E2:E13)</f>
+        <v>450.3624572421063</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3">
+        <f>SUM(G2:G13)</f>
+        <v>-3.5829904698982347</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H2:H13)</f>
+        <v>838.00614673015173</v>
+      </c>
+      <c r="I15" s="1">
+        <f>SUM(I3:I13)</f>
+        <v>386.20594723966229</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="10">
+        <f>I15/H15</f>
+        <v>0.46086290505936511</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>SQRT(H15/(Q12-Q13-1))</f>
+        <v>9.1542675661690804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="10">
+        <f>((ABS(Q14)-0)/Q15)*SQRT(Q12)</f>
+        <v>0.11298776758200567</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>12.706</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Textbooks, projects/Applied Math/labs/lab_5/var_4/lab_5_var_4.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_5/var_4/lab_5_var_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE09F7-CD92-4614-8557-0647B68E2338}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BB099-3A93-4BE1-B904-2CBB86E4F5D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,6 +468,50 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$2:$A$13</c:f>
@@ -1054,40 +1098,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.010179944484763</c:v>
+                  <c:v>6.2401503158154839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.074125909872025</c:v>
+                  <c:v>16.051455265849256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.536691788159406</c:v>
+                  <c:v>20.684668110701825</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.286319596842617</c:v>
+                  <c:v>25.136254535444849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.646761005396534</c:v>
+                  <c:v>33.494548124602261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.257574605267244</c:v>
+                  <c:v>37.401255289016646</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.340387596196152</c:v>
+                  <c:v>44.669790357516789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.812386987254357</c:v>
+                  <c:v>48.031618261602546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.571448308708398</c:v>
+                  <c:v>51.211819745578751</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.950756742803961</c:v>
+                  <c:v>57.027343453202533</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62.571003855445497</c:v>
+                  <c:v>59.662665676850111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.672683871916064</c:v>
+                  <c:v>64.388430863816623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,7 +3935,7 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3997,7 +4041,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E13" si="2">$P$4+$P$5*A3</f>
+        <f t="shared" ref="E3:E14" si="2">$P$4+$P$5*A3</f>
         <v>17.138929511553101</v>
       </c>
       <c r="F3" s="2">
@@ -4496,7 +4540,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,7 +4587,7 @@
       </c>
       <c r="N1">
         <f>A15</f>
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="O1">
         <f>C15</f>
@@ -4583,19 +4627,19 @@
       </c>
       <c r="H2" s="2">
         <f>$Q$5+$Q$6*A2+$Q$7*(A2^2)</f>
-        <v>10.010179944484763</v>
+        <v>6.2401503158154839</v>
       </c>
       <c r="I2" s="2">
         <f>B2-H2</f>
-        <v>-1.0101799444847632</v>
+        <v>2.7598496841845161</v>
       </c>
       <c r="J2">
         <f>I2^2</f>
-        <v>1.0204635202392394</v>
+        <v>7.6167702792933731</v>
       </c>
       <c r="M2">
         <f>A15</f>
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="N2">
         <f>C15</f>
@@ -4639,19 +4683,19 @@
       </c>
       <c r="H3" s="2">
         <f t="shared" ref="H3:H13" si="5">$Q$5+$Q$6*A3+$Q$7*(A3^2)</f>
-        <v>14.074125909872025</v>
+        <v>16.051455265849256</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I13" si="6">B3-H3</f>
-        <v>0.92587409012797472</v>
+        <v>-1.0514552658492562</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J13" si="7">I3^2</f>
-        <v>0.85724283077030505</v>
+        <v>1.10555817608213</v>
       </c>
       <c r="K3">
         <f>(I3-I2)^2</f>
-        <v>3.7483052249402609</v>
+        <v>14.526045422151936</v>
       </c>
       <c r="M3">
         <f>C15</f>
@@ -4699,19 +4743,19 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" si="5"/>
-        <v>16.536691788159406</v>
+        <v>20.684668110701825</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="6"/>
-        <v>3.4633082118405945</v>
+        <v>-0.68466811070182487</v>
       </c>
       <c r="J4">
         <f t="shared" si="7"/>
-        <v>11.994503770202495</v>
+        <v>0.46877042181200634</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K13" si="8">(I4-I3)^2</f>
-        <v>6.4385719220314943</v>
+        <v>0.13453281718114585</v>
       </c>
       <c r="O4" s="4"/>
     </row>
@@ -4744,36 +4788,36 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" si="5"/>
-        <v>19.286319596842617</v>
+        <v>25.136254535444849</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" si="6"/>
-        <v>2.7136804031573831</v>
+        <v>-3.1362545354448486</v>
       </c>
       <c r="J5">
         <f t="shared" si="7"/>
-        <v>7.3640613304804177</v>
+        <v>9.8360925110983821</v>
       </c>
       <c r="K5">
         <f t="shared" si="8"/>
-        <v>0.56194185155119325</v>
+        <v>6.010275997984281</v>
       </c>
       <c r="M5">
         <f t="array" ref="M5:O7">MINVERSE(M1:O3)</f>
-        <v>-6.0774690547307948E-2</v>
+        <v>1.4477070859433427</v>
       </c>
       <c r="N5">
-        <v>2.8953265723500453E-2</v>
+        <v>-0.30314301799978638</v>
       </c>
       <c r="O5" s="4">
-        <v>-1.6655112475197063E-3</v>
+        <v>1.3448146150617391E-2</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="Q5">
         <f t="array" ref="Q5:Q7">MMULT(M5:O7,Q1:Q3)</f>
-        <v>7.0944817006808307</v>
+        <v>-4.2976603146564685</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -4805,34 +4849,34 @@
       </c>
       <c r="H6" s="2">
         <f t="shared" si="5"/>
-        <v>25.646761005396534</v>
+        <v>33.494548124602261</v>
       </c>
       <c r="I6" s="2">
         <f t="shared" si="6"/>
-        <v>7.3532389946034655</v>
+        <v>-0.49454812460226094</v>
       </c>
       <c r="J6">
         <f t="shared" si="7"/>
-        <v>54.070123711756985</v>
+        <v>0.24457784754761341</v>
       </c>
       <c r="K6">
         <f t="shared" si="8"/>
-        <v>21.525503923461155</v>
+        <v>6.9786127610868265</v>
       </c>
       <c r="M6">
-        <v>2.8953265723500449E-2</v>
+        <v>-0.30314301799978655</v>
       </c>
       <c r="N6">
-        <v>-3.1131097169584303E-3</v>
+        <v>7.4157037345201932E-2</v>
       </c>
       <c r="O6">
-        <v>6.8838642020483645E-5</v>
+        <v>-3.5405946949362407E-3</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>1.1707871915061343</v>
+        <v>5.4505317353455212</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -4864,34 +4908,34 @@
       </c>
       <c r="H7" s="2">
         <f t="shared" si="5"/>
-        <v>29.257574605267244</v>
+        <v>37.401255289016646</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="6"/>
-        <v>7.7424253947327557</v>
+        <v>-0.40125528901664609</v>
       </c>
       <c r="J7">
         <f t="shared" si="7"/>
-        <v>59.94515099300267</v>
+        <v>0.16100580696383218</v>
       </c>
       <c r="K7">
         <f t="shared" si="8"/>
-        <v>0.15146605404559596</v>
+        <v>8.7035531716045649E-3</v>
       </c>
       <c r="M7">
-        <v>-1.6655112475197063E-3</v>
+        <v>1.3448146150617398E-2</v>
       </c>
       <c r="N7">
-        <v>6.8838642020483659E-5</v>
+        <v>-3.5405946949362411E-3</v>
       </c>
       <c r="O7">
-        <v>6.8760208322777007E-6</v>
+        <v>1.7744233098293782E-4</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="Q7">
-        <v>0.14353096519791608</v>
+        <v>-9.0813210054772497E-2</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4923,19 +4967,19 @@
       </c>
       <c r="H8" s="2">
         <f t="shared" si="5"/>
-        <v>37.340387596196152</v>
+        <v>44.669790357516789</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="6"/>
-        <v>7.6596124038038482</v>
+        <v>0.3302096424832115</v>
       </c>
       <c r="J8">
         <f t="shared" si="7"/>
-        <v>58.669662176505767</v>
+        <v>0.10903840798889035</v>
       </c>
       <c r="K8">
         <f t="shared" si="8"/>
-        <v>6.8579914665913132E-3</v>
+        <v>0.53504094601409136</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4967,19 +5011,19 @@
       </c>
       <c r="H9" s="2">
         <f t="shared" si="5"/>
-        <v>41.812386987254357</v>
+        <v>48.031618261602546</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="6"/>
-        <v>8.1876130127456435</v>
+        <v>1.9683817383974542</v>
       </c>
       <c r="J9">
         <f t="shared" si="7"/>
-        <v>67.037006846481788</v>
+        <v>3.8745266680565837</v>
       </c>
       <c r="K9">
         <f t="shared" si="8"/>
-        <v>0.27878464304290657</v>
+        <v>2.6836078158320631</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -5011,19 +5055,19 @@
       </c>
       <c r="H10" s="2">
         <f t="shared" si="5"/>
-        <v>46.571448308708398</v>
+        <v>51.211819745578751</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="6"/>
-        <v>7.4285516912916023</v>
+        <v>2.7881802544212491</v>
       </c>
       <c r="J10">
         <f t="shared" si="7"/>
-        <v>55.183380230191325</v>
+        <v>7.7739491311445414</v>
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.57617408972755524</v>
+        <v>0.67206960687481621</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -5055,19 +5099,19 @@
       </c>
       <c r="H11" s="2">
         <f t="shared" si="5"/>
-        <v>56.950756742803961</v>
+        <v>57.027343453202533</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="6"/>
-        <v>-0.95075674280396072</v>
+        <v>-1.0273434532025334</v>
       </c>
       <c r="J11">
         <f t="shared" si="7"/>
-        <v>0.90393838398719673</v>
+        <v>1.0554345708381059</v>
       </c>
       <c r="K11">
         <f t="shared" si="8"/>
-        <v>70.212809833705037</v>
+        <v>14.558221163439136</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -5099,19 +5143,19 @@
       </c>
       <c r="H12" s="2">
         <f t="shared" si="5"/>
-        <v>62.571003855445497</v>
+        <v>59.662665676850111</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="6"/>
-        <v>-2.5710038554454968</v>
+        <v>0.33733432314988931</v>
       </c>
       <c r="J12">
         <f t="shared" si="7"/>
-        <v>6.6100608247156094</v>
+        <v>0.11379444557499395</v>
       </c>
       <c r="K12">
         <f t="shared" si="8"/>
-        <v>2.6252007060232345</v>
+        <v>1.862345433270193</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5143,19 +5187,19 @@
       </c>
       <c r="H13" s="2">
         <f t="shared" si="5"/>
-        <v>74.672683871916064</v>
+        <v>64.388430863816623</v>
       </c>
       <c r="I13" s="2">
         <f t="shared" si="6"/>
-        <v>-11.672683871916064</v>
+        <v>-1.3884308638166232</v>
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
-        <v>136.25154877368939</v>
+        <v>1.9277402635985743</v>
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
-        <v>82.840579122219665</v>
+        <v>2.9782654805455619</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>18</v>
@@ -5207,8 +5251,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>SUM(A2:A14)</f>
-        <v>144</v>
+        <f>SUM(A2:A13)</f>
+        <v>119</v>
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
@@ -5237,29 +5281,29 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1">
         <f>SUM(I2:I13)</f>
-        <v>29.269679787652983</v>
+        <v>2.3270274596143281E-12</v>
       </c>
       <c r="J15" s="1">
         <f>SUM(J2:J13)</f>
-        <v>459.90714339202327</v>
+        <v>34.287258529999029</v>
       </c>
       <c r="K15" s="1">
         <f>SUM(K3:K13)</f>
-        <v>188.96619536221471</v>
+        <v>50.947720997551656</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="N15">
         <f>K15/J15</f>
-        <v>0.41087901781325575</v>
+        <v>1.4859082697724535</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="Q15" s="10">
         <f>I15/Q13</f>
-        <v>2.4391399823044151</v>
+        <v>1.9391895496786068E-13</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5268,7 +5312,7 @@
       </c>
       <c r="Q16" s="10">
         <f>SQRT(J15/(Q13-Q14-1))</f>
-        <v>6.7816454005795919</v>
+        <v>1.8516818984371757</v>
       </c>
     </row>
     <row r="17" spans="16:17" x14ac:dyDescent="0.25">
@@ -5277,7 +5321,7 @@
       </c>
       <c r="Q17" s="10">
         <f>((ABS(Q15)-0)/Q16)*SQRT(Q13)</f>
-        <v>1.2459260626522393</v>
+        <v>3.6278097532678512E-13</v>
       </c>
     </row>
     <row r="18" spans="16:17" x14ac:dyDescent="0.25">
